--- a/5/3/Depósitos sector privado y público no financieros 2004 a 2021 - Mensual.xlsx
+++ b/5/3/Depósitos sector privado y público no financieros 2004 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
   <si>
     <t>Serie</t>
   </si>
@@ -650,6 +650,9 @@
   </si>
   <si>
     <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1010,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C210"/>
+  <dimension ref="A1:C211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3323,6 +3326,17 @@
         <v>171442</v>
       </c>
     </row>
+    <row r="211" spans="1:3">
+      <c r="A211" t="s">
+        <v>212</v>
+      </c>
+      <c r="B211">
+        <v>173613</v>
+      </c>
+      <c r="C211">
+        <v>173280</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/3/Depósitos sector privado y público no financieros 2004 a 2021 - Mensual.xlsx
+++ b/5/3/Depósitos sector privado y público no financieros 2004 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
   <si>
     <t>Serie</t>
   </si>
@@ -653,6 +653,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1013,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C211"/>
+  <dimension ref="A1:C212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3337,6 +3340,17 @@
         <v>173280</v>
       </c>
     </row>
+    <row r="212" spans="1:3">
+      <c r="A212" t="s">
+        <v>213</v>
+      </c>
+      <c r="B212">
+        <v>176561</v>
+      </c>
+      <c r="C212">
+        <v>174342</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/3/Depósitos sector privado y público no financieros 2004 a 2021 - Mensual.xlsx
+++ b/5/3/Depósitos sector privado y público no financieros 2004 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
   <si>
     <t>Serie</t>
   </si>
@@ -656,6 +656,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1016,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C212"/>
+  <dimension ref="A1:C213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3351,6 +3354,17 @@
         <v>174342</v>
       </c>
     </row>
+    <row r="213" spans="1:3">
+      <c r="A213" t="s">
+        <v>214</v>
+      </c>
+      <c r="B213">
+        <v>174204</v>
+      </c>
+      <c r="C213">
+        <v>174963</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
